--- a/settings/test/Task_Master.xlsx
+++ b/settings/test/Task_Master.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>有効</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Group</t>
+          <t>グループ</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -451,37 +451,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>StartTime</t>
+          <t>開始時刻</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>EndTime</t>
+          <t>終了時刻</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>FilePath</t>
+          <t>ファイルパス</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>TargetSheet</t>
+          <t>転記シート</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>DownloadURL</t>
+          <t>URL</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>SearchKey</t>
+          <t>検索キー</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ActionAfter</t>
+          <t>完了後動作</t>
         </is>
       </c>
     </row>
@@ -494,7 +494,6 @@
           <t>08:00業務</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
           <t>07:50</t>
@@ -540,7 +539,6 @@
           <t>08:00業務</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
           <t>07:50</t>
@@ -583,10 +581,9 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>13:00業務</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>08:00業務</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>12:50</t>
@@ -594,7 +591,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -629,34 +626,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>22:00業務</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>13:00業務</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>21:50</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23:00:00</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>C:\Users\tyow\home\kai_system\sample\日次集計.xlsx</t>
+          <t>C:\Users\tyow\home\kai_system\sample\午後レポート.xlsx</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>集計</t>
+          <t>レポート</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>http://localhost:8888/daily.csv</t>
+          <t>http://localhost:8888/afternoon.csv</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>afternoon</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -667,41 +667,79 @@
     </row>
     <row r="6">
       <c r="A6" t="b">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>22:00業務</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21:50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>C:\Users\tyow\home\kai_system\sample\日次集計.xlsx</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>集計</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>http://localhost:8888/daily.csv</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>daily</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="b">
         <v>0</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>テスト用</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>00:00</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>C:\Users\tyow\home\kai_system\sample\テスト.xlsx</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Sheet1</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>http://localhost:8888/test.csv</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>Save</t>
         </is>

--- a/settings/test/Task_Master.xlsx
+++ b/settings/test/Task_Master.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="TaskList" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="設定方法" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,13 +29,32 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
+    <font>
+      <name val="Yu Gothic UI"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Yu Gothic UI"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004472C4"/>
+        <bgColor rgb="004472C4"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,10 +75,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,4 +777,343 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="35" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>項目名 (日本語 / 英語)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>説明</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>設定例</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>グループ / Group</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>GUIのボタンとしてグループ化するための名称。同じグループは連続実行されます。</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>朝処理</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>必須</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>開始時間 / StartTime</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>タスクを実行可能な開始時刻 (HH:MM)。この時間より前には実行されません。</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>必須</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>終了時間 / EndTime</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>タスク実行可能な終了時刻。空欄の場合は開始+8時間とみなされます。</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>任意</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>ファイルパス / FilePath</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>操作対象となるExcelファイルの絶対パス。</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>C:\Work\Data.xlsx</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>必須</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>転記シート / TargetSheet</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>ダウンロードしたCSVデータを貼り付けるシート名。</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>DLスキップ時は無視</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>検索キー / SearchKey</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>ダウンロードフォルダ内で検索するCSVファイル名の一部（キーワード）。最新のものを対象とします。</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>user_list</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>DLスキップ時は無視</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>ダウンロードURL / DownloadURL</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>データ取得元のURL。ブラウザで開くか、直接DLします。</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>https://example.com/dl</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>DLスキップ時は無視</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>完了後動作 / ActionAfter</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>処理完了後の動作。
+'Save': 保存して閉じる/次へ
+'Pause': メッセージを表示して一時停止（手動作業待ち）</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>デフォルト: Save</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>有効 / Active</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>タスクを有効にするか。TRUE または 1 で有効。</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>デフォルト: FALSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>DLスキップ / SkipDownload</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>ダウンロードと転記処理をスキップし、ファイルを開くだけにします。</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="inlineStr">
+        <is>
+          <t>デフォルト: FALSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>終了後閉じる / CloseAfter</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>タスク完了後にファイルを閉じるかどうか。
+TRUE: 閉じる
+FALSE: 開いたまま（連続処理でファイルを再利用するため）</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>デフォルト: FALSE (開いたまま)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>メッセージ / PopupMessage</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>ActionAfterが 'Pause' の時に表示するカスタムメッセージ。
+改行コードも使用可能。</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>データの更新を確認して
+OKを押してください</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>任意</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>マクロ名 / MacroName</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>処理後に実行したいVBAマクロ名。</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>RunAnalysis</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="inlineStr">
+        <is>
+          <t>任意（未実装機能の可能性あり）</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/settings/test/Task_Master.xlsx
+++ b/settings/test/Task_Master.xlsx
@@ -939,17 +939,13 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>ダウンロードフォルダ内で検索するCSVファイル名の一部（キーワード）。最新のものを対象とします。</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>user_list</t>
-        </is>
-      </c>
+          <t>（廃止済み）現在は使用されません。空欄でも構いません。</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr"/>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>DLスキップ時は無視</t>
+          <t>未使用</t>
         </is>
       </c>
     </row>

--- a/settings/test/Task_Master.xlsx
+++ b/settings/test/Task_Master.xlsx
@@ -775,6 +775,14 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation sqref="J2:J100" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="入力エラー" error="無効な値です。None, Pause, Save から選択してください。" promptTitle="完了後動作" prompt="None（何もしない）、Pause（手動確認）、Save（自動保存）から選択" type="list">
+      <formula1>"None,Pause,Save"</formula1>
+    </dataValidation>
+    <dataValidation sqref="A2:A100" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/settings/test/Task_Master.xlsx
+++ b/settings/test/Task_Master.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -27,11 +27,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-    </font>
-    <font>
+      <name val="Yu Gothic UI"/>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Yu Gothic UI"/>
@@ -43,7 +42,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -52,18 +51,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="002F5496"/>
+        <bgColor rgb="002F5496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="004472C4"/>
         <bgColor rgb="004472C4"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00CCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="00CCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00CCCCCC"/>
+      </bottom>
     </border>
     <border>
       <left style="thin"/>
@@ -75,19 +94,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -163,6 +185,112 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Co-worker Bot</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>TRUE: タスクを実行
+FALSE: スキップ</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <t>タスクをグループ化する名前
+例: 朝処理, 13:00業務</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <t>タスクの説明（任意）
+例: 売上データ取得</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <t>実行開始時刻（HH:MM）
+この時刻より前は待機します</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>実行終了時刻（HH:MM）
+空欄の場合は開始+8時間</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <t>操作対象のExcelファイルの絶対パス
+例: C:\Work\Data.xlsx</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <t>CSVデータを貼り付けるシート名</t>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <t>CSVダウンロードURL</t>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <t>None: 何もしない
+Pause: 確認後に保存
+Save: 自動保存</t>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <t>実行するVBAマクロ名（任意）
+例: Module1.ImportData</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <t>TRUE: ダウンロードせずファイルを開くのみ</t>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <t>TRUE: タスク完了後にExcelを閉じる
+FALSE: 開いたまま（連続処理用）</t>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <t>実行する曜日（カンマ区切り）
+1=月, 2=火, 3=水, 4=木, 5=金, 6=土, 7=日
+例: 1,2,3,4,5（平日のみ）
+空欄=毎日</t>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <t>TRUE: 日本の祝日はスキップ</t>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0">
+      <text>
+        <t>実行する日（カンマ区切り）
+例: 1,15（毎月1日と15日）
+L=月末
+空欄=毎日</t>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0">
+      <text>
+        <t>自由記述のメモ欄</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -454,13 +582,32 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="50" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="50" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="10" customWidth="1" min="12" max="12"/>
+    <col width="15" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="14" max="14"/>
+    <col width="15" customWidth="1" min="15" max="15"/>
+    <col width="30" customWidth="1" min="16" max="16"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -475,7 +622,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Memo</t>
+          <t>タスク名</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -495,7 +642,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>転記シート</t>
+          <t>シート</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -505,285 +652,417 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>検索キー</t>
+          <t>完了後動作</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>完了後動作</t>
+          <t>マクロ名</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>DLスキップ</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>閉じる</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>曜日</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>祝日スキップ</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>日付条件</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>メモ</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="b">
+      <c r="A2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>08:00業務</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>07:50</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>09:00:00</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>C:\Users\tyow\home\kai_system\sample\売上データ.xlsx</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>データ</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>http://localhost:8888/sales.csv</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>sales</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>Save</t>
         </is>
       </c>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="n"/>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="n"/>
+      <c r="P2" s="2" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" t="b">
+      <c r="A3" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>08:00業務</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>07:50</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>14:00:00</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>C:\Users\tyow\home\kai_system\sample\在庫管理.xlsx</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>在庫シート</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>http://localhost:8888/inventory.csv</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>inventory</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="I3" s="2" t="inlineStr">
         <is>
           <t>Pause</t>
         </is>
       </c>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" t="b">
+      <c r="A4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>08:00業務</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>12:50</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>14:00:00</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>C:\Users\tyow\home\kai_system\sample\午後レポート.xlsx</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>レポート</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>http://localhost:8888/afternoon.csv</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>Save</t>
         </is>
       </c>
+      <c r="J4" s="2" t="n"/>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="n"/>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="n"/>
+      <c r="P4" s="2" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" t="b">
+      <c r="A5" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>13:00業務</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>12:50</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>23:00:00</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>C:\Users\tyow\home\kai_system\sample\午後レポート.xlsx</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>レポート</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>http://localhost:8888/afternoon.csv</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>afternoon</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>Save</t>
         </is>
       </c>
+      <c r="J5" s="2" t="n"/>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="n"/>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="n"/>
+      <c r="P5" s="2" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" t="b">
+      <c r="A6" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>22:00業務</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>21:50</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>C:\Users\tyow\home\kai_system\sample\日次集計.xlsx</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>集計</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>http://localhost:8888/daily.csv</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>daily</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>Save</t>
         </is>
       </c>
+      <c r="J6" s="2" t="n"/>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="n"/>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="n"/>
+      <c r="P6" s="2" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" t="b">
+      <c r="A7" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>テスト用</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>00:00</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>C:\Users\tyow\home\kai_system\sample\テスト.xlsx</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>Sheet1</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>http://localhost:8888/test.csv</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>Save</t>
         </is>
       </c>
+      <c r="J7" s="2" t="n"/>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="n"/>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="n"/>
+      <c r="P7" s="2" t="n"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation sqref="J2:J100" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="入力エラー" error="無効な値です。None, Pause, Save から選択してください。" promptTitle="完了後動作" prompt="None（何もしない）、Pause（手動確認）、Save（自動保存）から選択" type="list">
+  <dataValidations count="5">
+    <dataValidation sqref="A2:A200" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="入力エラー" error="無効な値です。TRUE,FALSE から選択してください。" promptTitle="有効" prompt="TRUE: タスクを実行&#10;FALSE: スキップ" type="list">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation sqref="I2:I200" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="入力エラー" error="無効な値です。None,Pause,Save から選択してください。" promptTitle="完了後動作" prompt="None: 何もしない&#10;Pause: 確認後に保存&#10;Save: 自動保存" type="list">
       <formula1>"None,Pause,Save"</formula1>
     </dataValidation>
-    <dataValidation sqref="A2:A100" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="K2:K200" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="入力エラー" error="無効な値です。TRUE,FALSE から選択してください。" promptTitle="DLスキップ" prompt="TRUE: ダウンロードせずファイルを開くのみ" type="list">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation sqref="L2:L200" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="入力エラー" error="無効な値です。TRUE,FALSE から選択してください。" promptTitle="閉じる" prompt="TRUE: タスク完了後にExcelを閉じる&#10;FALSE: 開いたまま（連続処理用）" type="list">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation sqref="N2:N200" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="入力エラー" error="無効な値です。TRUE,FALSE から選択してください。" promptTitle="祝日スキップ" prompt="TRUE: 日本の祝日はスキップ" type="list">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
@@ -793,7 +1072,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -801,319 +1080,383 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="35" customWidth="1" min="1" max="1"/>
-    <col width="50" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>項目名 (日本語 / 英語)</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>項目名</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>説明</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>設定例</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>備考</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>グループ / Group</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>GUIのボタンとしてグループ化するための名称。同じグループは連続実行されます。</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>朝処理</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>有効</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>タスクを有効にするか</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>必須</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>開始時間 / StartTime</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>タスクを実行可能な開始時刻 (HH:MM)。この時間より前には実行されません。</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>グループ</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>GUIのボタン名。同じグループは連続実行</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>08:00業務</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>必須</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>タスク名</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>タスクの説明（GUIには表示されない）</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>売上データ取得</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>任意</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>開始時刻</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>実行開始時刻。この時刻より前は待機</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>09:00</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>必須</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>終了時間 / EndTime</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>タスク実行可能な終了時刻。空欄の場合は開始+8時間とみなされます。</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>終了時刻</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>実行終了時刻。過ぎたらスキップ</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>空欄=開始+8時間</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>ファイルパス</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>操作対象Excelファイルの絶対パス</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>C:\Work\Data.xlsx</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>必須</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>シート</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>CSVデータ貼り付け先シート名</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>DLスキップ時は不要</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>CSVダウンロードURL</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>https://example.com/dl</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>DLスキップ時は不要</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>完了後動作</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>処理後の動作</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>None/Pause/Save</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>マクロ名</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>実行するVBAマクロ</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>Module1.Run</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>任意</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>ファイルパス / FilePath</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>操作対象となるExcelファイルの絶対パス。</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>C:\Work\Data.xlsx</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>必須</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>転記シート / TargetSheet</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>ダウンロードしたCSVデータを貼り付けるシート名。</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>DLスキップ時は無視</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>検索キー / SearchKey</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>（廃止済み）現在は使用されません。空欄でも構いません。</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>未使用</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>ダウンロードURL / DownloadURL</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>データ取得元のURL。ブラウザで開くか、直接DLします。</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>https://example.com/dl</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>DLスキップ時は無視</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>完了後動作 / ActionAfter</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>処理完了後の動作。
-'Save': 保存して閉じる/次へ
-'Pause': メッセージを表示して一時停止（手動作業待ち）</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>Save</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>デフォルト: Save</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>有効 / Active</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>タスクを有効にするか。TRUE または 1 で有効。</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>DLスキップ</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>ダウンロードせずファイルを開くのみ</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>デフォルト: FALSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>閉じる</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>完了後にExcelを閉じる</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>デフォルト: FALSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>曜日</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>実行曜日 (1=月〜7=日)</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>1,2,3,4,5</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>空欄=毎日</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>祝日スキップ</t>
+        </is>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>日本の祝日をスキップ</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="D10" s="4" t="inlineStr">
+      <c r="D15" s="5" t="inlineStr">
         <is>
           <t>デフォルト: FALSE</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>DLスキップ / SkipDownload</t>
-        </is>
-      </c>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>ダウンロードと転記処理をスキップし、ファイルを開くだけにします。</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="D11" s="4" t="inlineStr">
-        <is>
-          <t>デフォルト: FALSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>終了後閉じる / CloseAfter</t>
-        </is>
-      </c>
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t>タスク完了後にファイルを閉じるかどうか。
-TRUE: 閉じる
-FALSE: 開いたまま（連続処理でファイルを再利用するため）</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="D12" s="4" t="inlineStr">
-        <is>
-          <t>デフォルト: FALSE (開いたまま)</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>メッセージ / PopupMessage</t>
-        </is>
-      </c>
-      <c r="B13" s="4" t="inlineStr">
-        <is>
-          <t>ActionAfterが 'Pause' の時に表示するカスタムメッセージ。
-改行コードも使用可能。</t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="inlineStr">
-        <is>
-          <t>データの更新を確認して
-OKを押してください</t>
-        </is>
-      </c>
-      <c r="D13" s="4" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>日付条件</t>
+        </is>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>実行日 (1,15=毎月1日と15日, L=月末)</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>1,15,L</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>空欄=毎日</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>メモ</t>
+        </is>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>自由記述欄</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>〇〇システム用</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
         <is>
           <t>任意</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="inlineStr">
-        <is>
-          <t>マクロ名 / MacroName</t>
-        </is>
-      </c>
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>処理後に実行したいVBAマクロ名。</t>
-        </is>
-      </c>
-      <c r="C14" s="4" t="inlineStr">
-        <is>
-          <t>RunAnalysis</t>
-        </is>
-      </c>
-      <c r="D14" s="4" t="inlineStr">
-        <is>
-          <t>任意（未実装機能の可能性あり）</t>
         </is>
       </c>
     </row>
